--- a/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 01/01. Báo giá bảo hành/BG_SEA_200126.xlsx
+++ b/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 01/01. Báo giá bảo hành/BG_SEA_200126.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4. Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2026\Tháng 01\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78494F94-1385-4C0C-B459-62707127BE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303493B4-486E-4936-85C1-A9E505865955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,6 +472,63 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,63 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -948,82 +948,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="52" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="49" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="16"/>
@@ -1034,11 +1034,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1048,11 +1048,11 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -1065,11 +1065,11 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1147,17 +1147,17 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="26">
         <f>SUM(J11:J11)</f>
         <v>385000</v>
@@ -1165,11 +1165,11 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1191,37 +1191,37 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="8"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="10"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,20 +1292,20 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="9"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,11 +1382,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A5:J5"/>
@@ -1400,6 +1395,11 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
